--- a/src/ch2_z_sort_performance.xlsx
+++ b/src/ch2_z_sort_performance.xlsx
@@ -2031,58 +2031,58 @@
                   <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.4E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11600000000000001</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.159</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.19600000000000001</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.442</c:v>
+                  <c:v>0.377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89800000000000002</c:v>
+                  <c:v>0.80500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4390000000000001</c:v>
+                  <c:v>1.2430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1110000000000002</c:v>
+                  <c:v>1.679</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7170000000000001</c:v>
+                  <c:v>2.1150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.6840000000000002</c:v>
+                  <c:v>4.3620000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,7 +4433,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4558,7 +4558,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -4598,7 +4598,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -4618,7 +4618,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F9">
-        <v>2.4E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -4638,7 +4638,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>2.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -4658,7 +4658,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="F11">
-        <v>3.1E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -4678,7 +4678,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="F12">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -4698,7 +4698,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="F13">
-        <v>5.3999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -4718,7 +4718,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F14">
-        <v>7.3999999999999996E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -4738,7 +4738,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F15">
-        <v>0.11600000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -4758,7 +4758,7 @@
         <v>0.104</v>
       </c>
       <c r="F16">
-        <v>0.159</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -4778,7 +4778,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="F17">
-        <v>0.19600000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -4798,7 +4798,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="F18">
-        <v>0.442</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -4818,7 +4818,7 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="F19">
-        <v>0.89800000000000002</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -4838,7 +4838,7 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="F20">
-        <v>1.4390000000000001</v>
+        <v>1.2430000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -4858,7 +4858,7 @@
         <v>1.3660000000000001</v>
       </c>
       <c r="F21">
-        <v>2.1110000000000002</v>
+        <v>1.679</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -4878,7 +4878,7 @@
         <v>1.7</v>
       </c>
       <c r="F22">
-        <v>2.7170000000000001</v>
+        <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -4892,7 +4892,7 @@
         <v>3.17</v>
       </c>
       <c r="F23">
-        <v>5.6840000000000002</v>
+        <v>4.3620000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">

--- a/src/ch2_z_sort_performance.xlsx
+++ b/src/ch2_z_sort_performance.xlsx
@@ -2025,64 +2025,64 @@
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9999999999999993E-3</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1.9E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03</c:v>
+                  <c:v>2.9000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4999999999999998E-2</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>9.0999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.17199999999999999</c:v>
+                  <c:v>0.157</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.377</c:v>
+                  <c:v>0.36799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.80500000000000005</c:v>
+                  <c:v>0.76300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2430000000000001</c:v>
+                  <c:v>1.1859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.679</c:v>
+                  <c:v>1.6559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1150000000000002</c:v>
+                  <c:v>2.0489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.3620000000000001</c:v>
+                  <c:v>4.2869999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4518,7 +4518,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F4">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -4538,7 +4538,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F5">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -4558,7 +4558,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -4578,7 +4578,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>1.6E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -4598,7 +4598,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -4618,7 +4618,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F9">
-        <v>2.1000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -4638,7 +4638,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F10">
-        <v>2.4E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -4658,7 +4658,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="F11">
-        <v>2.7E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -4678,7 +4678,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="F12">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -4698,7 +4698,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="F13">
-        <v>4.4999999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -4718,7 +4718,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F14">
-        <v>6.5000000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -4738,7 +4738,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F15">
-        <v>9.5000000000000001E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -4778,7 +4778,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="F17">
-        <v>0.17199999999999999</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -4798,7 +4798,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="F18">
-        <v>0.377</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -4818,7 +4818,7 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="F19">
-        <v>0.80500000000000005</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -4838,7 +4838,7 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="F20">
-        <v>1.2430000000000001</v>
+        <v>1.1859999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -4858,7 +4858,7 @@
         <v>1.3660000000000001</v>
       </c>
       <c r="F21">
-        <v>1.679</v>
+        <v>1.6559999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -4878,7 +4878,7 @@
         <v>1.7</v>
       </c>
       <c r="F22">
-        <v>2.1150000000000002</v>
+        <v>2.0489999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -4892,7 +4892,7 @@
         <v>3.17</v>
       </c>
       <c r="F23">
-        <v>4.3620000000000001</v>
+        <v>4.2869999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">

--- a/src/ch2_z_sort_performance.xlsx
+++ b/src/ch2_z_sort_performance.xlsx
@@ -2019,25 +2019,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.9E-2</c:v>
@@ -2049,40 +2049,40 @@
                   <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0999999999999998E-2</c:v>
+                  <c:v>8.8999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.157</c:v>
+                  <c:v>0.14899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36799999999999999</c:v>
+                  <c:v>0.32900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76300000000000001</c:v>
+                  <c:v>0.69799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1859999999999999</c:v>
+                  <c:v>1.099</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6559999999999999</c:v>
+                  <c:v>1.591</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0489999999999999</c:v>
+                  <c:v>1.9690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2869999999999999</c:v>
+                  <c:v>4.0679999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,8 +4432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -4498,7 +4498,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="F3">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -4518,7 +4518,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F4">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -4558,7 +4558,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -4578,7 +4578,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="F7">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -4598,7 +4598,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F8">
-        <v>1.6E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -4678,7 +4678,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="F12">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -4698,7 +4698,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="F13">
-        <v>4.2999999999999997E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -4718,7 +4718,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="F14">
-        <v>6.0999999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -4738,7 +4738,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="F15">
-        <v>9.0999999999999998E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -4758,7 +4758,7 @@
         <v>0.104</v>
       </c>
       <c r="F16">
-        <v>0.13400000000000001</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -4778,7 +4778,7 @@
         <v>0.13900000000000001</v>
       </c>
       <c r="F17">
-        <v>0.157</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -4798,7 +4798,7 @@
         <v>0.28100000000000003</v>
       </c>
       <c r="F18">
-        <v>0.36799999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -4818,7 +4818,7 @@
         <v>0.59399999999999997</v>
       </c>
       <c r="F19">
-        <v>0.76300000000000001</v>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -4838,7 +4838,7 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="F20">
-        <v>1.1859999999999999</v>
+        <v>1.099</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -4858,7 +4858,7 @@
         <v>1.3660000000000001</v>
       </c>
       <c r="F21">
-        <v>1.6559999999999999</v>
+        <v>1.591</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -4878,7 +4878,7 @@
         <v>1.7</v>
       </c>
       <c r="F22">
-        <v>2.0489999999999999</v>
+        <v>1.9690000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -4892,7 +4892,7 @@
         <v>3.17</v>
       </c>
       <c r="F23">
-        <v>4.2869999999999999</v>
+        <v>4.0679999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">

--- a/src/ch2_z_sort_performance.xlsx
+++ b/src/ch2_z_sort_performance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Count</t>
   </si>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>Merge</t>
+  </si>
+  <si>
+    <t>Merge-Ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2091,6 +2095,201 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E17A-45B6-90D1-A5286279065C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O(nlogn)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge-Ins</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'O(nlogn)'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'O(nlogn)'!$G$2:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E17A-45B6-90D1-A5286279065C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4430,10 +4629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4441,7 +4640,7 @@
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4460,8 +4659,11 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
@@ -4480,8 +4682,11 @@
       <c r="F2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -4500,8 +4705,11 @@
       <c r="F3">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -4520,8 +4728,11 @@
       <c r="F4">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -4540,8 +4751,11 @@
       <c r="F5">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -4560,8 +4774,11 @@
       <c r="F6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -4580,8 +4797,11 @@
       <c r="F7">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -4600,8 +4820,11 @@
       <c r="F8">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -4620,8 +4843,11 @@
       <c r="F9">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -4640,8 +4866,11 @@
       <c r="F10">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9000</v>
       </c>
@@ -4660,8 +4889,11 @@
       <c r="F11">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -4680,8 +4912,11 @@
       <c r="F12">
         <v>2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15000</v>
       </c>
@@ -4700,8 +4935,11 @@
       <c r="F13">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>20000</v>
       </c>
@@ -4720,8 +4958,11 @@
       <c r="F14">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>30000</v>
       </c>
@@ -4740,8 +4981,11 @@
       <c r="F15">
         <v>8.8999999999999996E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>40000</v>
       </c>
@@ -4760,8 +5004,11 @@
       <c r="F16">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>50000</v>
       </c>
@@ -4780,8 +5027,11 @@
       <c r="F17">
         <v>0.14899999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>100000</v>
       </c>
@@ -4800,8 +5050,11 @@
       <c r="F18">
         <v>0.32900000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>200000</v>
       </c>
@@ -4820,8 +5073,11 @@
       <c r="F19">
         <v>0.69799999999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>300000</v>
       </c>
@@ -4840,8 +5096,11 @@
       <c r="F20">
         <v>1.099</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20">
+        <v>1.0409999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>400000</v>
       </c>
@@ -4860,8 +5119,11 @@
       <c r="F21">
         <v>1.591</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21">
+        <v>1.504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>500000</v>
       </c>
@@ -4880,8 +5142,11 @@
       <c r="F22">
         <v>1.9690000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22">
+        <v>1.865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1000000</v>
       </c>
@@ -4894,8 +5159,11 @@
       <c r="F23">
         <v>4.0679999999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2000000</v>
       </c>
@@ -4903,7 +5171,7 @@
         <v>7.6630000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3000000</v>
       </c>
@@ -4911,7 +5179,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>4000000</v>
       </c>
@@ -4919,7 +5187,7 @@
         <v>15.379</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>5000000</v>
       </c>
@@ -4927,7 +5195,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10000000</v>
       </c>
@@ -4938,7 +5206,7 @@
         <v>45.267000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>100000000</v>
       </c>

--- a/src/ch2_z_sort_performance.xlsx
+++ b/src/ch2_z_sort_performance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Count</t>
   </si>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>Merge-Ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2290,6 +2294,207 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E17A-45B6-90D1-A5286279065C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'O(nlogn)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'O(nlogn)'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'O(nlogn)'!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6579999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E17A-45B6-90D1-A5286279065C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4629,10 +4834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4640,7 +4845,7 @@
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4662,8 +4867,11 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
@@ -4685,8 +4893,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -4708,8 +4919,11 @@
       <c r="G3">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -4731,8 +4945,11 @@
       <c r="G4">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3000</v>
       </c>
@@ -4754,8 +4971,11 @@
       <c r="G5">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4000</v>
       </c>
@@ -4777,8 +4997,11 @@
       <c r="G6">
         <v>8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -4800,8 +5023,11 @@
       <c r="G7">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6000</v>
       </c>
@@ -4823,8 +5049,11 @@
       <c r="G8">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7000</v>
       </c>
@@ -4846,8 +5075,11 @@
       <c r="G9">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8000</v>
       </c>
@@ -4869,8 +5101,11 @@
       <c r="G10">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9000</v>
       </c>
@@ -4892,8 +5127,11 @@
       <c r="G11">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10000</v>
       </c>
@@ -4915,8 +5153,11 @@
       <c r="G12">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>15000</v>
       </c>
@@ -4938,8 +5179,11 @@
       <c r="G13">
         <v>3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>20000</v>
       </c>
@@ -4961,8 +5205,11 @@
       <c r="G14">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>30000</v>
       </c>
@@ -4984,8 +5231,11 @@
       <c r="G15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>40000</v>
       </c>
@@ -5007,8 +5257,11 @@
       <c r="G16">
         <v>0.107</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>50000</v>
       </c>
@@ -5030,8 +5283,11 @@
       <c r="G17">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>100000</v>
       </c>
@@ -5053,8 +5309,11 @@
       <c r="G18">
         <v>0.28799999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>200000</v>
       </c>
@@ -5076,8 +5335,11 @@
       <c r="G19">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H19">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>300000</v>
       </c>
@@ -5099,8 +5361,11 @@
       <c r="G20">
         <v>1.0409999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>400000</v>
       </c>
@@ -5122,8 +5387,11 @@
       <c r="G21">
         <v>1.504</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H21">
+        <v>1.256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>500000</v>
       </c>
@@ -5145,8 +5413,11 @@
       <c r="G22">
         <v>1.865</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H22">
+        <v>1.792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1000000</v>
       </c>
@@ -5162,8 +5433,11 @@
       <c r="G23">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H23">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2000000</v>
       </c>
@@ -5171,7 +5445,7 @@
         <v>7.6630000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>3000000</v>
       </c>
@@ -5179,7 +5453,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>4000000</v>
       </c>
@@ -5187,7 +5461,7 @@
         <v>15.379</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>5000000</v>
       </c>
@@ -5195,7 +5469,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>10000000</v>
       </c>
@@ -5206,7 +5480,7 @@
         <v>45.267000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>100000000</v>
       </c>
